--- a/output/DANH_SACH_THU_NO.xlsx
+++ b/output/DANH_SACH_THU_NO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE102"/>
+  <dimension ref="A1:CJ102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -836,15 +836,40 @@
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
+          <t>properties.Đơn giá.id</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Đơn giá.type</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Đơn giá.rollup.type</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Đơn giá.rollup.array</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>properties.Đơn giá.rollup.function</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
           <t>properties.Mã đơn.id</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>properties.Mã đơn.type</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>properties.Mã đơn.title</t>
         </is>
@@ -1062,7 +1087,7 @@
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 12000000}}]</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
@@ -1221,15 +1246,40 @@
       </c>
       <c r="CC2" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD2" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE2" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 12000000}}]</t>
+        </is>
+      </c>
+      <c r="CG2" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH2" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD2" t="inlineStr">
+      <c r="CI2" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE2" t="inlineStr">
+      <c r="CJ2" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-131', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-131', 'href': None}]</t>
         </is>
@@ -1447,7 +1497,7 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 20000000}}]</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
@@ -1606,15 +1656,40 @@
       </c>
       <c r="CC3" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD3" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE3" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF3" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 20000000}}]</t>
+        </is>
+      </c>
+      <c r="CG3" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH3" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD3" t="inlineStr">
+      <c r="CI3" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE3" t="inlineStr">
+      <c r="CJ3" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-130', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-130', 'href': None}]</t>
         </is>
@@ -1832,7 +1907,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 10000000}}]</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
@@ -1991,15 +2066,40 @@
       </c>
       <c r="CC4" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD4" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE4" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF4" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 10000000}}]</t>
+        </is>
+      </c>
+      <c r="CG4" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH4" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD4" t="inlineStr">
+      <c r="CI4" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE4" t="inlineStr">
+      <c r="CJ4" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-129', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-129', 'href': None}]</t>
         </is>
@@ -2217,7 +2317,7 @@
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 4000000}}]</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
@@ -2376,15 +2476,40 @@
       </c>
       <c r="CC5" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD5" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE5" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF5" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 4000000}}]</t>
+        </is>
+      </c>
+      <c r="CG5" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH5" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD5" t="inlineStr">
+      <c r="CI5" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE5" t="inlineStr">
+      <c r="CJ5" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-128', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-128', 'href': None}]</t>
         </is>
@@ -2602,7 +2727,7 @@
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 12000000}}]</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
@@ -2761,15 +2886,40 @@
       </c>
       <c r="CC6" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD6" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE6" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF6" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 12000000}}]</t>
+        </is>
+      </c>
+      <c r="CG6" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH6" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD6" t="inlineStr">
+      <c r="CI6" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE6" t="inlineStr">
+      <c r="CJ6" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-127', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-127', 'href': None}]</t>
         </is>
@@ -2987,7 +3137,7 @@
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 25000000}}]</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
@@ -3146,15 +3296,40 @@
       </c>
       <c r="CC7" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD7" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE7" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF7" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 25000000}}]</t>
+        </is>
+      </c>
+      <c r="CG7" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH7" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD7" t="inlineStr">
+      <c r="CI7" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE7" t="inlineStr">
+      <c r="CJ7" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-126', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-126', 'href': None}]</t>
         </is>
@@ -3529,15 +3704,40 @@
       </c>
       <c r="CC8" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD8" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE8" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="CG8" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH8" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD8" t="inlineStr">
+      <c r="CI8" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE8" t="inlineStr">
+      <c r="CJ8" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-125', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-125', 'href': None}]</t>
         </is>
@@ -3755,7 +3955,7 @@
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 38000000}}]</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
@@ -3914,15 +4114,40 @@
       </c>
       <c r="CC9" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD9" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE9" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF9" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 38000000}}]</t>
+        </is>
+      </c>
+      <c r="CG9" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH9" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD9" t="inlineStr">
+      <c r="CI9" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE9" t="inlineStr">
+      <c r="CJ9" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-124', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-124', 'href': None}]</t>
         </is>
@@ -4297,15 +4522,40 @@
       </c>
       <c r="CC10" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD10" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE10" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="CG10" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH10" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD10" t="inlineStr">
+      <c r="CI10" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE10" t="inlineStr">
+      <c r="CJ10" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-123', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-123', 'href': None}]</t>
         </is>
@@ -4680,15 +4930,40 @@
       </c>
       <c r="CC11" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD11" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE11" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="CG11" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH11" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD11" t="inlineStr">
+      <c r="CI11" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE11" t="inlineStr">
+      <c r="CJ11" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -4906,7 +5181,7 @@
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 29500000}}]</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
@@ -5065,15 +5340,40 @@
       </c>
       <c r="CC12" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD12" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE12" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF12" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 29500000}}]</t>
+        </is>
+      </c>
+      <c r="CG12" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH12" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD12" t="inlineStr">
+      <c r="CI12" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE12" t="inlineStr">
+      <c r="CJ12" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-121', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-121', 'href': None}]</t>
         </is>
@@ -5448,15 +5748,40 @@
       </c>
       <c r="CC13" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD13" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE13" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="CG13" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH13" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD13" t="inlineStr">
+      <c r="CI13" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE13" t="inlineStr">
+      <c r="CJ13" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -5674,7 +5999,7 @@
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 10000000}}]</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
@@ -5833,15 +6158,40 @@
       </c>
       <c r="CC14" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD14" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE14" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF14" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 10000000}}]</t>
+        </is>
+      </c>
+      <c r="CG14" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH14" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD14" t="inlineStr">
+      <c r="CI14" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE14" t="inlineStr">
+      <c r="CJ14" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-119', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-119', 'href': None}]</t>
         </is>
@@ -6059,7 +6409,7 @@
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 18000000}}]</t>
         </is>
       </c>
       <c r="AW15" t="inlineStr">
@@ -6218,15 +6568,40 @@
       </c>
       <c r="CC15" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD15" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE15" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF15" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 18000000}}]</t>
+        </is>
+      </c>
+      <c r="CG15" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH15" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD15" t="inlineStr">
+      <c r="CI15" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE15" t="inlineStr">
+      <c r="CJ15" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-118', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-118', 'href': None}]</t>
         </is>
@@ -6444,7 +6819,7 @@
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 0}}]</t>
         </is>
       </c>
       <c r="AW16" t="inlineStr">
@@ -6601,15 +6976,40 @@
       </c>
       <c r="CC16" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD16" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE16" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF16" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 0}}]</t>
+        </is>
+      </c>
+      <c r="CG16" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH16" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD16" t="inlineStr">
+      <c r="CI16" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE16" t="inlineStr">
+      <c r="CJ16" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-117', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-117', 'href': None}]</t>
         </is>
@@ -6827,7 +7227,7 @@
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 40000000}}]</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
@@ -6986,15 +7386,40 @@
       </c>
       <c r="CC17" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD17" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE17" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF17" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 40000000}}]</t>
+        </is>
+      </c>
+      <c r="CG17" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH17" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD17" t="inlineStr">
+      <c r="CI17" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE17" t="inlineStr">
+      <c r="CJ17" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-116', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-116', 'href': None}]</t>
         </is>
@@ -7212,7 +7637,7 @@
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 15000000}}]</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
@@ -7371,15 +7796,40 @@
       </c>
       <c r="CC18" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD18" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE18" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF18" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 15000000}}]</t>
+        </is>
+      </c>
+      <c r="CG18" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH18" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD18" t="inlineStr">
+      <c r="CI18" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE18" t="inlineStr">
+      <c r="CJ18" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-115', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-115', 'href': None}]</t>
         </is>
@@ -7754,15 +8204,40 @@
       </c>
       <c r="CC19" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD19" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE19" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="CG19" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH19" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD19" t="inlineStr">
+      <c r="CI19" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE19" t="inlineStr">
+      <c r="CJ19" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -7980,7 +8455,7 @@
       </c>
       <c r="AV20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 2000000}}]</t>
         </is>
       </c>
       <c r="AW20" t="inlineStr">
@@ -8139,15 +8614,40 @@
       </c>
       <c r="CC20" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD20" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE20" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF20" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 2000000}}]</t>
+        </is>
+      </c>
+      <c r="CG20" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH20" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD20" t="inlineStr">
+      <c r="CI20" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE20" t="inlineStr">
+      <c r="CJ20" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-113', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-113', 'href': None}]</t>
         </is>
@@ -8365,7 +8865,7 @@
       </c>
       <c r="AV21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 13000000}}]</t>
         </is>
       </c>
       <c r="AW21" t="inlineStr">
@@ -8524,15 +9024,40 @@
       </c>
       <c r="CC21" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD21" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE21" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF21" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 13000000}}]</t>
+        </is>
+      </c>
+      <c r="CG21" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH21" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD21" t="inlineStr">
+      <c r="CI21" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE21" t="inlineStr">
+      <c r="CJ21" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-112', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-112', 'href': None}]</t>
         </is>
@@ -8750,7 +9275,7 @@
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 38000000}}]</t>
         </is>
       </c>
       <c r="AW22" t="inlineStr">
@@ -8909,15 +9434,40 @@
       </c>
       <c r="CC22" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD22" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE22" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF22" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 38000000}}]</t>
+        </is>
+      </c>
+      <c r="CG22" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH22" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD22" t="inlineStr">
+      <c r="CI22" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE22" t="inlineStr">
+      <c r="CJ22" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-109', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-109', 'href': None}]</t>
         </is>
@@ -9135,7 +9685,7 @@
       </c>
       <c r="AV23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 9000000}}]</t>
         </is>
       </c>
       <c r="AW23" t="inlineStr">
@@ -9294,15 +9844,40 @@
       </c>
       <c r="CC23" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD23" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE23" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF23" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 9000000}}]</t>
+        </is>
+      </c>
+      <c r="CG23" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH23" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD23" t="inlineStr">
+      <c r="CI23" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE23" t="inlineStr">
+      <c r="CJ23" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-107', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-107', 'href': None}]</t>
         </is>
@@ -9520,7 +10095,7 @@
       </c>
       <c r="AV24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 19000000}}]</t>
         </is>
       </c>
       <c r="AW24" t="inlineStr">
@@ -9679,15 +10254,40 @@
       </c>
       <c r="CC24" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD24" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE24" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF24" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 19000000}}]</t>
+        </is>
+      </c>
+      <c r="CG24" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH24" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD24" t="inlineStr">
+      <c r="CI24" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE24" t="inlineStr">
+      <c r="CJ24" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-105', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-105', 'href': None}]</t>
         </is>
@@ -9905,7 +10505,7 @@
       </c>
       <c r="AV25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 3500000}}]</t>
         </is>
       </c>
       <c r="AW25" t="inlineStr">
@@ -10064,15 +10664,40 @@
       </c>
       <c r="CC25" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD25" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE25" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF25" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 3500000}}]</t>
+        </is>
+      </c>
+      <c r="CG25" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH25" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD25" t="inlineStr">
+      <c r="CI25" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE25" t="inlineStr">
+      <c r="CJ25" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-103', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-103', 'href': None}]</t>
         </is>
@@ -10290,7 +10915,7 @@
       </c>
       <c r="AV26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 400000}}]</t>
         </is>
       </c>
       <c r="AW26" t="inlineStr">
@@ -10449,15 +11074,40 @@
       </c>
       <c r="CC26" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD26" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE26" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF26" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 400000}}]</t>
+        </is>
+      </c>
+      <c r="CG26" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH26" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD26" t="inlineStr">
+      <c r="CI26" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE26" t="inlineStr">
+      <c r="CJ26" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-102', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-102', 'href': None}]</t>
         </is>
@@ -10675,7 +11325,7 @@
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 8386000}}]</t>
         </is>
       </c>
       <c r="AW27" t="inlineStr">
@@ -10834,15 +11484,40 @@
       </c>
       <c r="CC27" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD27" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE27" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF27" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 8386000}}]</t>
+        </is>
+      </c>
+      <c r="CG27" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH27" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD27" t="inlineStr">
+      <c r="CI27" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE27" t="inlineStr">
+      <c r="CJ27" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-101', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-101', 'href': None}]</t>
         </is>
@@ -11060,7 +11735,7 @@
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 17000000}}]</t>
         </is>
       </c>
       <c r="AW28" t="inlineStr">
@@ -11219,15 +11894,40 @@
       </c>
       <c r="CC28" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD28" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE28" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF28" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 17000000}}]</t>
+        </is>
+      </c>
+      <c r="CG28" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH28" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD28" t="inlineStr">
+      <c r="CI28" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE28" t="inlineStr">
+      <c r="CJ28" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-99', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-99', 'href': None}]</t>
         </is>
@@ -11445,7 +12145,7 @@
       </c>
       <c r="AV29" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 10000000}}]</t>
         </is>
       </c>
       <c r="AW29" t="inlineStr">
@@ -11604,15 +12304,40 @@
       </c>
       <c r="CC29" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD29" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE29" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF29" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 10000000}}]</t>
+        </is>
+      </c>
+      <c r="CG29" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH29" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD29" t="inlineStr">
+      <c r="CI29" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE29" t="inlineStr">
+      <c r="CJ29" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-98', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-98', 'href': None}]</t>
         </is>
@@ -11830,7 +12555,7 @@
       </c>
       <c r="AV30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 12500000}}]</t>
         </is>
       </c>
       <c r="AW30" t="inlineStr">
@@ -11989,15 +12714,40 @@
       </c>
       <c r="CC30" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD30" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE30" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF30" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 12500000}}]</t>
+        </is>
+      </c>
+      <c r="CG30" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH30" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD30" t="inlineStr">
+      <c r="CI30" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE30" t="inlineStr">
+      <c r="CJ30" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-97', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-97', 'href': None}]</t>
         </is>
@@ -12215,7 +12965,7 @@
       </c>
       <c r="AV31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 3000000}}]</t>
         </is>
       </c>
       <c r="AW31" t="inlineStr">
@@ -12374,15 +13124,40 @@
       </c>
       <c r="CC31" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD31" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE31" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF31" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 3000000}}]</t>
+        </is>
+      </c>
+      <c r="CG31" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH31" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD31" t="inlineStr">
+      <c r="CI31" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE31" t="inlineStr">
+      <c r="CJ31" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-96', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-96', 'href': None}]</t>
         </is>
@@ -12600,7 +13375,7 @@
       </c>
       <c r="AV32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 2400000}}]</t>
         </is>
       </c>
       <c r="AW32" t="inlineStr">
@@ -12759,15 +13534,40 @@
       </c>
       <c r="CC32" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD32" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE32" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF32" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 2400000}}]</t>
+        </is>
+      </c>
+      <c r="CG32" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH32" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD32" t="inlineStr">
+      <c r="CI32" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE32" t="inlineStr">
+      <c r="CJ32" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-95', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-95', 'href': None}]</t>
         </is>
@@ -12985,7 +13785,7 @@
       </c>
       <c r="AV33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 3000000}}]</t>
         </is>
       </c>
       <c r="AW33" t="inlineStr">
@@ -13144,15 +13944,40 @@
       </c>
       <c r="CC33" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD33" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE33" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF33" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 3000000}}]</t>
+        </is>
+      </c>
+      <c r="CG33" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH33" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD33" t="inlineStr">
+      <c r="CI33" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE33" t="inlineStr">
+      <c r="CJ33" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-94', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-94', 'href': None}]</t>
         </is>
@@ -13370,7 +14195,7 @@
       </c>
       <c r="AV34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 35000000}}]</t>
         </is>
       </c>
       <c r="AW34" t="inlineStr">
@@ -13529,15 +14354,40 @@
       </c>
       <c r="CC34" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD34" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE34" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF34" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 35000000}}]</t>
+        </is>
+      </c>
+      <c r="CG34" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH34" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD34" t="inlineStr">
+      <c r="CI34" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE34" t="inlineStr">
+      <c r="CJ34" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-93', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-93', 'href': None}]</t>
         </is>
@@ -13755,7 +14605,7 @@
       </c>
       <c r="AV35" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 25000000}}]</t>
         </is>
       </c>
       <c r="AW35" t="inlineStr">
@@ -13914,15 +14764,40 @@
       </c>
       <c r="CC35" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD35" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE35" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF35" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 25000000}}]</t>
+        </is>
+      </c>
+      <c r="CG35" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH35" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD35" t="inlineStr">
+      <c r="CI35" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE35" t="inlineStr">
+      <c r="CJ35" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-92', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-92', 'href': None}]</t>
         </is>
@@ -14140,7 +15015,7 @@
       </c>
       <c r="AV36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 30000000}}]</t>
         </is>
       </c>
       <c r="AW36" t="inlineStr">
@@ -14299,15 +15174,40 @@
       </c>
       <c r="CC36" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD36" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE36" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF36" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 30000000}}]</t>
+        </is>
+      </c>
+      <c r="CG36" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH36" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD36" t="inlineStr">
+      <c r="CI36" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE36" t="inlineStr">
+      <c r="CJ36" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-90', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-90', 'href': None}]</t>
         </is>
@@ -14525,7 +15425,7 @@
       </c>
       <c r="AV37" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 25000000}}]</t>
         </is>
       </c>
       <c r="AW37" t="inlineStr">
@@ -14684,15 +15584,40 @@
       </c>
       <c r="CC37" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD37" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE37" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF37" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 25000000}}]</t>
+        </is>
+      </c>
+      <c r="CG37" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH37" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD37" t="inlineStr">
+      <c r="CI37" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE37" t="inlineStr">
+      <c r="CJ37" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-89', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-89', 'href': None}]</t>
         </is>
@@ -14910,7 +15835,7 @@
       </c>
       <c r="AV38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 25000000}}]</t>
         </is>
       </c>
       <c r="AW38" t="inlineStr">
@@ -15069,15 +15994,40 @@
       </c>
       <c r="CC38" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD38" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE38" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF38" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 25000000}}]</t>
+        </is>
+      </c>
+      <c r="CG38" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH38" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD38" t="inlineStr">
+      <c r="CI38" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE38" t="inlineStr">
+      <c r="CJ38" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-88', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-88', 'href': None}]</t>
         </is>
@@ -15295,7 +16245,7 @@
       </c>
       <c r="AV39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 35000000}}]</t>
         </is>
       </c>
       <c r="AW39" t="inlineStr">
@@ -15454,15 +16404,40 @@
       </c>
       <c r="CC39" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD39" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE39" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF39" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 35000000}}]</t>
+        </is>
+      </c>
+      <c r="CG39" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH39" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD39" t="inlineStr">
+      <c r="CI39" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE39" t="inlineStr">
+      <c r="CJ39" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-87', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-87', 'href': None}]</t>
         </is>
@@ -15680,7 +16655,7 @@
       </c>
       <c r="AV40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 30000000}}]</t>
         </is>
       </c>
       <c r="AW40" t="inlineStr">
@@ -15839,15 +16814,40 @@
       </c>
       <c r="CC40" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD40" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE40" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF40" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 30000000}}]</t>
+        </is>
+      </c>
+      <c r="CG40" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH40" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD40" t="inlineStr">
+      <c r="CI40" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE40" t="inlineStr">
+      <c r="CJ40" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-86', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-86', 'href': None}]</t>
         </is>
@@ -16065,7 +17065,7 @@
       </c>
       <c r="AV41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 13000000}}]</t>
         </is>
       </c>
       <c r="AW41" t="inlineStr">
@@ -16224,15 +17224,40 @@
       </c>
       <c r="CC41" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD41" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE41" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF41" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 13000000}}]</t>
+        </is>
+      </c>
+      <c r="CG41" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH41" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD41" t="inlineStr">
+      <c r="CI41" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE41" t="inlineStr">
+      <c r="CJ41" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-85', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-85', 'href': None}]</t>
         </is>
@@ -16450,7 +17475,7 @@
       </c>
       <c r="AV42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 35000000}}]</t>
         </is>
       </c>
       <c r="AW42" t="inlineStr">
@@ -16609,15 +17634,40 @@
       </c>
       <c r="CC42" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD42" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE42" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF42" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 35000000}}]</t>
+        </is>
+      </c>
+      <c r="CG42" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH42" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD42" t="inlineStr">
+      <c r="CI42" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE42" t="inlineStr">
+      <c r="CJ42" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-84', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-84', 'href': None}]</t>
         </is>
@@ -16835,7 +17885,7 @@
       </c>
       <c r="AV43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 35000000}}]</t>
         </is>
       </c>
       <c r="AW43" t="inlineStr">
@@ -16994,15 +18044,40 @@
       </c>
       <c r="CC43" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD43" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE43" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF43" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 35000000}}]</t>
+        </is>
+      </c>
+      <c r="CG43" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH43" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD43" t="inlineStr">
+      <c r="CI43" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE43" t="inlineStr">
+      <c r="CJ43" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-83', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-83', 'href': None}]</t>
         </is>
@@ -17220,7 +18295,7 @@
       </c>
       <c r="AV44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 13000000}}]</t>
         </is>
       </c>
       <c r="AW44" t="inlineStr">
@@ -17379,15 +18454,40 @@
       </c>
       <c r="CC44" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD44" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE44" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF44" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 13000000}}]</t>
+        </is>
+      </c>
+      <c r="CG44" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH44" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD44" t="inlineStr">
+      <c r="CI44" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE44" t="inlineStr">
+      <c r="CJ44" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-81', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-81', 'href': None}]</t>
         </is>
@@ -17605,7 +18705,7 @@
       </c>
       <c r="AV45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 6000000}}]</t>
         </is>
       </c>
       <c r="AW45" t="inlineStr">
@@ -17764,15 +18864,40 @@
       </c>
       <c r="CC45" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD45" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE45" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF45" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 6000000}}]</t>
+        </is>
+      </c>
+      <c r="CG45" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH45" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD45" t="inlineStr">
+      <c r="CI45" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE45" t="inlineStr">
+      <c r="CJ45" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-80', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-80', 'href': None}]</t>
         </is>
@@ -17990,7 +19115,7 @@
       </c>
       <c r="AV46" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 25000000}}]</t>
         </is>
       </c>
       <c r="AW46" t="inlineStr">
@@ -18149,15 +19274,40 @@
       </c>
       <c r="CC46" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD46" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE46" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF46" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 25000000}}]</t>
+        </is>
+      </c>
+      <c r="CG46" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH46" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD46" t="inlineStr">
+      <c r="CI46" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE46" t="inlineStr">
+      <c r="CJ46" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-79', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-79', 'href': None}]</t>
         </is>
@@ -18375,7 +19525,7 @@
       </c>
       <c r="AV47" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 60000000}}]</t>
         </is>
       </c>
       <c r="AW47" t="inlineStr">
@@ -18534,15 +19684,40 @@
       </c>
       <c r="CC47" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD47" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE47" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF47" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 60000000}}]</t>
+        </is>
+      </c>
+      <c r="CG47" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH47" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD47" t="inlineStr">
+      <c r="CI47" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE47" t="inlineStr">
+      <c r="CJ47" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-76', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-76', 'href': None}]</t>
         </is>
@@ -18760,7 +19935,7 @@
       </c>
       <c r="AV48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 12500000}}]</t>
         </is>
       </c>
       <c r="AW48" t="inlineStr">
@@ -18919,15 +20094,40 @@
       </c>
       <c r="CC48" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD48" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE48" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF48" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 12500000}}]</t>
+        </is>
+      </c>
+      <c r="CG48" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH48" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD48" t="inlineStr">
+      <c r="CI48" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE48" t="inlineStr">
+      <c r="CJ48" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-75', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-75', 'href': None}]</t>
         </is>
@@ -19145,7 +20345,7 @@
       </c>
       <c r="AV49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 25000000}}]</t>
         </is>
       </c>
       <c r="AW49" t="inlineStr">
@@ -19304,15 +20504,40 @@
       </c>
       <c r="CC49" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD49" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE49" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF49" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 25000000}}]</t>
+        </is>
+      </c>
+      <c r="CG49" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH49" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD49" t="inlineStr">
+      <c r="CI49" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE49" t="inlineStr">
+      <c r="CJ49" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-74', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-74', 'href': None}]</t>
         </is>
@@ -19530,7 +20755,7 @@
       </c>
       <c r="AV50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 25000000}}]</t>
         </is>
       </c>
       <c r="AW50" t="inlineStr">
@@ -19689,15 +20914,40 @@
       </c>
       <c r="CC50" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD50" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE50" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF50" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 25000000}}]</t>
+        </is>
+      </c>
+      <c r="CG50" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH50" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD50" t="inlineStr">
+      <c r="CI50" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE50" t="inlineStr">
+      <c r="CJ50" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-73', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-73', 'href': None}]</t>
         </is>
@@ -19915,7 +21165,7 @@
       </c>
       <c r="AV51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 27500000}}]</t>
         </is>
       </c>
       <c r="AW51" t="inlineStr">
@@ -20074,15 +21324,40 @@
       </c>
       <c r="CC51" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD51" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE51" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF51" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 27500000}}]</t>
+        </is>
+      </c>
+      <c r="CG51" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH51" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD51" t="inlineStr">
+      <c r="CI51" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE51" t="inlineStr">
+      <c r="CJ51" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-72', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-72', 'href': None}]</t>
         </is>
@@ -20300,7 +21575,7 @@
       </c>
       <c r="AV52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 3000000}}]</t>
         </is>
       </c>
       <c r="AW52" t="inlineStr">
@@ -20459,15 +21734,40 @@
       </c>
       <c r="CC52" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD52" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE52" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF52" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 3000000}}]</t>
+        </is>
+      </c>
+      <c r="CG52" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH52" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD52" t="inlineStr">
+      <c r="CI52" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE52" t="inlineStr">
+      <c r="CJ52" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-71', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-71', 'href': None}]</t>
         </is>
@@ -20685,7 +21985,7 @@
       </c>
       <c r="AV53" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 20000000}}]</t>
         </is>
       </c>
       <c r="AW53" t="inlineStr">
@@ -20844,15 +22144,40 @@
       </c>
       <c r="CC53" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD53" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE53" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF53" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 20000000}}]</t>
+        </is>
+      </c>
+      <c r="CG53" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH53" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD53" t="inlineStr">
+      <c r="CI53" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE53" t="inlineStr">
+      <c r="CJ53" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-70', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-70', 'href': None}]</t>
         </is>
@@ -21070,7 +22395,7 @@
       </c>
       <c r="AV54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 9000000}}]</t>
         </is>
       </c>
       <c r="AW54" t="inlineStr">
@@ -21229,15 +22554,40 @@
       </c>
       <c r="CC54" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD54" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE54" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF54" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 9000000}}]</t>
+        </is>
+      </c>
+      <c r="CG54" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH54" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD54" t="inlineStr">
+      <c r="CI54" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE54" t="inlineStr">
+      <c r="CJ54" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-69', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-69', 'href': None}]</t>
         </is>
@@ -21455,7 +22805,7 @@
       </c>
       <c r="AV55" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 8000000}}]</t>
         </is>
       </c>
       <c r="AW55" t="inlineStr">
@@ -21614,15 +22964,40 @@
       </c>
       <c r="CC55" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD55" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE55" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF55" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 8000000}}]</t>
+        </is>
+      </c>
+      <c r="CG55" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH55" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD55" t="inlineStr">
+      <c r="CI55" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE55" t="inlineStr">
+      <c r="CJ55" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-68', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-68', 'href': None}]</t>
         </is>
@@ -21840,7 +23215,7 @@
       </c>
       <c r="AV56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 20000000}}]</t>
         </is>
       </c>
       <c r="AW56" t="inlineStr">
@@ -21999,15 +23374,40 @@
       </c>
       <c r="CC56" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD56" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE56" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF56" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 20000000}}]</t>
+        </is>
+      </c>
+      <c r="CG56" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH56" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD56" t="inlineStr">
+      <c r="CI56" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE56" t="inlineStr">
+      <c r="CJ56" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-67', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-67', 'href': None}]</t>
         </is>
@@ -22225,7 +23625,7 @@
       </c>
       <c r="AV57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 20000000}}]</t>
         </is>
       </c>
       <c r="AW57" t="inlineStr">
@@ -22384,15 +23784,40 @@
       </c>
       <c r="CC57" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD57" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE57" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF57" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 20000000}}]</t>
+        </is>
+      </c>
+      <c r="CG57" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH57" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD57" t="inlineStr">
+      <c r="CI57" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE57" t="inlineStr">
+      <c r="CJ57" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-65', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-65', 'href': None}]</t>
         </is>
@@ -22610,7 +24035,7 @@
       </c>
       <c r="AV58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 6000000}}]</t>
         </is>
       </c>
       <c r="AW58" t="inlineStr">
@@ -22769,15 +24194,40 @@
       </c>
       <c r="CC58" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD58" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE58" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF58" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 6000000}}]</t>
+        </is>
+      </c>
+      <c r="CG58" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH58" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD58" t="inlineStr">
+      <c r="CI58" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE58" t="inlineStr">
+      <c r="CJ58" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-64', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-64', 'href': None}]</t>
         </is>
@@ -22995,7 +24445,7 @@
       </c>
       <c r="AV59" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 25000000}}]</t>
         </is>
       </c>
       <c r="AW59" t="inlineStr">
@@ -23154,15 +24604,40 @@
       </c>
       <c r="CC59" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD59" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE59" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF59" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 25000000}}]</t>
+        </is>
+      </c>
+      <c r="CG59" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH59" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD59" t="inlineStr">
+      <c r="CI59" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE59" t="inlineStr">
+      <c r="CJ59" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-63', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-63', 'href': None}]</t>
         </is>
@@ -23380,7 +24855,7 @@
       </c>
       <c r="AV60" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 4500000}}]</t>
         </is>
       </c>
       <c r="AW60" t="inlineStr">
@@ -23539,15 +25014,40 @@
       </c>
       <c r="CC60" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD60" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE60" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF60" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 4500000}}]</t>
+        </is>
+      </c>
+      <c r="CG60" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH60" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD60" t="inlineStr">
+      <c r="CI60" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE60" t="inlineStr">
+      <c r="CJ60" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-61', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-61', 'href': None}]</t>
         </is>
@@ -23765,7 +25265,7 @@
       </c>
       <c r="AV61" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 75000000}}]</t>
         </is>
       </c>
       <c r="AW61" t="inlineStr">
@@ -23924,15 +25424,40 @@
       </c>
       <c r="CC61" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD61" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE61" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF61" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 75000000}}]</t>
+        </is>
+      </c>
+      <c r="CG61" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH61" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD61" t="inlineStr">
+      <c r="CI61" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE61" t="inlineStr">
+      <c r="CJ61" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-59', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-59', 'href': None}]</t>
         </is>
@@ -24150,7 +25675,7 @@
       </c>
       <c r="AV62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 15000000}}]</t>
         </is>
       </c>
       <c r="AW62" t="inlineStr">
@@ -24309,15 +25834,40 @@
       </c>
       <c r="CC62" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD62" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE62" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF62" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 15000000}}]</t>
+        </is>
+      </c>
+      <c r="CG62" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH62" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD62" t="inlineStr">
+      <c r="CI62" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE62" t="inlineStr">
+      <c r="CJ62" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-58', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-58', 'href': None}]</t>
         </is>
@@ -24535,7 +26085,7 @@
       </c>
       <c r="AV63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 19000000}}]</t>
         </is>
       </c>
       <c r="AW63" t="inlineStr">
@@ -24694,15 +26244,40 @@
       </c>
       <c r="CC63" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD63" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE63" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF63" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 19000000}}]</t>
+        </is>
+      </c>
+      <c r="CG63" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH63" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD63" t="inlineStr">
+      <c r="CI63" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE63" t="inlineStr">
+      <c r="CJ63" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-57', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-57', 'href': None}]</t>
         </is>
@@ -24920,7 +26495,7 @@
       </c>
       <c r="AV64" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 19000000}}]</t>
         </is>
       </c>
       <c r="AW64" t="inlineStr">
@@ -25079,15 +26654,40 @@
       </c>
       <c r="CC64" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD64" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE64" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF64" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 19000000}}]</t>
+        </is>
+      </c>
+      <c r="CG64" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH64" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD64" t="inlineStr">
+      <c r="CI64" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE64" t="inlineStr">
+      <c r="CJ64" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-56', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-56', 'href': None}]</t>
         </is>
@@ -25305,7 +26905,7 @@
       </c>
       <c r="AV65" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 19000000}}]</t>
         </is>
       </c>
       <c r="AW65" t="inlineStr">
@@ -25464,15 +27064,40 @@
       </c>
       <c r="CC65" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD65" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE65" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF65" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 19000000}}]</t>
+        </is>
+      </c>
+      <c r="CG65" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH65" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD65" t="inlineStr">
+      <c r="CI65" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE65" t="inlineStr">
+      <c r="CJ65" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-55', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-55', 'href': None}]</t>
         </is>
@@ -25690,7 +27315,7 @@
       </c>
       <c r="AV66" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 19000000}}]</t>
         </is>
       </c>
       <c r="AW66" t="inlineStr">
@@ -25849,15 +27474,40 @@
       </c>
       <c r="CC66" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD66" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE66" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF66" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 19000000}}]</t>
+        </is>
+      </c>
+      <c r="CG66" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH66" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD66" t="inlineStr">
+      <c r="CI66" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE66" t="inlineStr">
+      <c r="CJ66" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-50', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-50', 'href': None}]</t>
         </is>
@@ -26075,7 +27725,7 @@
       </c>
       <c r="AV67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 12000000}}]</t>
         </is>
       </c>
       <c r="AW67" t="inlineStr">
@@ -26234,15 +27884,40 @@
       </c>
       <c r="CC67" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD67" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE67" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF67" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 12000000}}]</t>
+        </is>
+      </c>
+      <c r="CG67" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH67" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD67" t="inlineStr">
+      <c r="CI67" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE67" t="inlineStr">
+      <c r="CJ67" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-44', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-44', 'href': None}]</t>
         </is>
@@ -26460,7 +28135,7 @@
       </c>
       <c r="AV68" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 15000000}}]</t>
         </is>
       </c>
       <c r="AW68" t="inlineStr">
@@ -26619,15 +28294,40 @@
       </c>
       <c r="CC68" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD68" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE68" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF68" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 15000000}}]</t>
+        </is>
+      </c>
+      <c r="CG68" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH68" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD68" t="inlineStr">
+      <c r="CI68" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE68" t="inlineStr">
+      <c r="CJ68" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-43', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-43', 'href': None}]</t>
         </is>
@@ -26845,7 +28545,7 @@
       </c>
       <c r="AV69" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 20000000}}]</t>
         </is>
       </c>
       <c r="AW69" t="inlineStr">
@@ -27004,15 +28704,40 @@
       </c>
       <c r="CC69" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD69" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE69" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF69" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 20000000}}]</t>
+        </is>
+      </c>
+      <c r="CG69" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH69" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD69" t="inlineStr">
+      <c r="CI69" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE69" t="inlineStr">
+      <c r="CJ69" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-42', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-42', 'href': None}]</t>
         </is>
@@ -27230,7 +28955,7 @@
       </c>
       <c r="AV70" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 4800000}}]</t>
         </is>
       </c>
       <c r="AW70" t="inlineStr">
@@ -27389,15 +29114,40 @@
       </c>
       <c r="CC70" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD70" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE70" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF70" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 4800000}}]</t>
+        </is>
+      </c>
+      <c r="CG70" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH70" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD70" t="inlineStr">
+      <c r="CI70" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE70" t="inlineStr">
+      <c r="CJ70" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-41', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-41', 'href': None}]</t>
         </is>
@@ -27615,7 +29365,7 @@
       </c>
       <c r="AV71" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 20000000}}]</t>
         </is>
       </c>
       <c r="AW71" t="inlineStr">
@@ -27774,15 +29524,40 @@
       </c>
       <c r="CC71" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD71" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE71" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF71" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 20000000}}]</t>
+        </is>
+      </c>
+      <c r="CG71" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH71" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD71" t="inlineStr">
+      <c r="CI71" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE71" t="inlineStr">
+      <c r="CJ71" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-40', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-40', 'href': None}]</t>
         </is>
@@ -28000,7 +29775,7 @@
       </c>
       <c r="AV72" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 5000000}}]</t>
         </is>
       </c>
       <c r="AW72" t="inlineStr">
@@ -28159,15 +29934,40 @@
       </c>
       <c r="CC72" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD72" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE72" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF72" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 5000000}}]</t>
+        </is>
+      </c>
+      <c r="CG72" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH72" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD72" t="inlineStr">
+      <c r="CI72" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE72" t="inlineStr">
+      <c r="CJ72" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-39', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-39', 'href': None}]</t>
         </is>
@@ -28385,7 +30185,7 @@
       </c>
       <c r="AV73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 12500000}}]</t>
         </is>
       </c>
       <c r="AW73" t="inlineStr">
@@ -28544,15 +30344,40 @@
       </c>
       <c r="CC73" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD73" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE73" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF73" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 12500000}}]</t>
+        </is>
+      </c>
+      <c r="CG73" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH73" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD73" t="inlineStr">
+      <c r="CI73" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE73" t="inlineStr">
+      <c r="CJ73" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-38', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-38', 'href': None}]</t>
         </is>
@@ -28770,7 +30595,7 @@
       </c>
       <c r="AV74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 1000000}}]</t>
         </is>
       </c>
       <c r="AW74" t="inlineStr">
@@ -28929,15 +30754,40 @@
       </c>
       <c r="CC74" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD74" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE74" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF74" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 1000000}}]</t>
+        </is>
+      </c>
+      <c r="CG74" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH74" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD74" t="inlineStr">
+      <c r="CI74" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE74" t="inlineStr">
+      <c r="CJ74" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-37', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-37', 'href': None}]</t>
         </is>
@@ -29155,7 +31005,7 @@
       </c>
       <c r="AV75" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 4000000}}]</t>
         </is>
       </c>
       <c r="AW75" t="inlineStr">
@@ -29314,15 +31164,40 @@
       </c>
       <c r="CC75" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD75" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE75" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF75" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 4000000}}]</t>
+        </is>
+      </c>
+      <c r="CG75" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH75" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD75" t="inlineStr">
+      <c r="CI75" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE75" t="inlineStr">
+      <c r="CJ75" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-36', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-36', 'href': None}]</t>
         </is>
@@ -29540,7 +31415,7 @@
       </c>
       <c r="AV76" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 10000000}}]</t>
         </is>
       </c>
       <c r="AW76" t="inlineStr">
@@ -29699,15 +31574,40 @@
       </c>
       <c r="CC76" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD76" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE76" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF76" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 10000000}}]</t>
+        </is>
+      </c>
+      <c r="CG76" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH76" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD76" t="inlineStr">
+      <c r="CI76" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE76" t="inlineStr">
+      <c r="CJ76" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-35', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-35', 'href': None}]</t>
         </is>
@@ -29925,7 +31825,7 @@
       </c>
       <c r="AV77" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 15000000}}]</t>
         </is>
       </c>
       <c r="AW77" t="inlineStr">
@@ -30084,15 +31984,40 @@
       </c>
       <c r="CC77" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD77" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE77" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF77" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 15000000}}]</t>
+        </is>
+      </c>
+      <c r="CG77" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH77" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD77" t="inlineStr">
+      <c r="CI77" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE77" t="inlineStr">
+      <c r="CJ77" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-34', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-34', 'href': None}]</t>
         </is>
@@ -30310,7 +32235,7 @@
       </c>
       <c r="AV78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 35000000}}]</t>
         </is>
       </c>
       <c r="AW78" t="inlineStr">
@@ -30469,15 +32394,40 @@
       </c>
       <c r="CC78" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD78" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE78" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF78" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 35000000}}]</t>
+        </is>
+      </c>
+      <c r="CG78" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH78" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD78" t="inlineStr">
+      <c r="CI78" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE78" t="inlineStr">
+      <c r="CJ78" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-33', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-33', 'href': None}]</t>
         </is>
@@ -30695,7 +32645,7 @@
       </c>
       <c r="AV79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 1000000}}]</t>
         </is>
       </c>
       <c r="AW79" t="inlineStr">
@@ -30854,15 +32804,40 @@
       </c>
       <c r="CC79" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD79" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE79" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF79" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 1000000}}]</t>
+        </is>
+      </c>
+      <c r="CG79" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH79" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD79" t="inlineStr">
+      <c r="CI79" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE79" t="inlineStr">
+      <c r="CJ79" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-31', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-31', 'href': None}]</t>
         </is>
@@ -31080,7 +33055,7 @@
       </c>
       <c r="AV80" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 1000000}}]</t>
         </is>
       </c>
       <c r="AW80" t="inlineStr">
@@ -31239,15 +33214,40 @@
       </c>
       <c r="CC80" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD80" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE80" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF80" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 1000000}}]</t>
+        </is>
+      </c>
+      <c r="CG80" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH80" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD80" t="inlineStr">
+      <c r="CI80" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE80" t="inlineStr">
+      <c r="CJ80" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-30', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-30', 'href': None}]</t>
         </is>
@@ -31465,7 +33465,7 @@
       </c>
       <c r="AV81" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 10000000}}]</t>
         </is>
       </c>
       <c r="AW81" t="inlineStr">
@@ -31624,15 +33624,40 @@
       </c>
       <c r="CC81" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD81" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE81" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF81" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 10000000}}]</t>
+        </is>
+      </c>
+      <c r="CG81" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH81" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD81" t="inlineStr">
+      <c r="CI81" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE81" t="inlineStr">
+      <c r="CJ81" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-29', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-29', 'href': None}]</t>
         </is>
@@ -31850,7 +33875,7 @@
       </c>
       <c r="AV82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 17000000}}]</t>
         </is>
       </c>
       <c r="AW82" t="inlineStr">
@@ -32009,15 +34034,40 @@
       </c>
       <c r="CC82" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD82" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE82" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF82" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 17000000}}]</t>
+        </is>
+      </c>
+      <c r="CG82" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH82" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD82" t="inlineStr">
+      <c r="CI82" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE82" t="inlineStr">
+      <c r="CJ82" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-28', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-28', 'href': None}]</t>
         </is>
@@ -32235,7 +34285,7 @@
       </c>
       <c r="AV83" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 6000000}}]</t>
         </is>
       </c>
       <c r="AW83" t="inlineStr">
@@ -32394,15 +34444,40 @@
       </c>
       <c r="CC83" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD83" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE83" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF83" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 6000000}}]</t>
+        </is>
+      </c>
+      <c r="CG83" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH83" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD83" t="inlineStr">
+      <c r="CI83" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE83" t="inlineStr">
+      <c r="CJ83" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-27', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-27', 'href': None}]</t>
         </is>
@@ -32620,7 +34695,7 @@
       </c>
       <c r="AV84" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 10000000}}]</t>
         </is>
       </c>
       <c r="AW84" t="inlineStr">
@@ -32779,15 +34854,40 @@
       </c>
       <c r="CC84" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD84" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE84" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF84" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 10000000}}]</t>
+        </is>
+      </c>
+      <c r="CG84" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH84" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD84" t="inlineStr">
+      <c r="CI84" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE84" t="inlineStr">
+      <c r="CJ84" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-26', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-26', 'href': None}]</t>
         </is>
@@ -33005,7 +35105,7 @@
       </c>
       <c r="AV85" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 40000000}}]</t>
         </is>
       </c>
       <c r="AW85" t="inlineStr">
@@ -33164,15 +35264,40 @@
       </c>
       <c r="CC85" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD85" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE85" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF85" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 40000000}}]</t>
+        </is>
+      </c>
+      <c r="CG85" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH85" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD85" t="inlineStr">
+      <c r="CI85" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE85" t="inlineStr">
+      <c r="CJ85" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-25', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-25', 'href': None}]</t>
         </is>
@@ -33390,7 +35515,7 @@
       </c>
       <c r="AV86" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 20000000}}]</t>
         </is>
       </c>
       <c r="AW86" t="inlineStr">
@@ -33549,15 +35674,40 @@
       </c>
       <c r="CC86" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD86" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE86" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF86" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 20000000}}]</t>
+        </is>
+      </c>
+      <c r="CG86" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH86" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD86" t="inlineStr">
+      <c r="CI86" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE86" t="inlineStr">
+      <c r="CJ86" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-23', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-23', 'href': None}]</t>
         </is>
@@ -33775,7 +35925,7 @@
       </c>
       <c r="AV87" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 4500000}}]</t>
         </is>
       </c>
       <c r="AW87" t="inlineStr">
@@ -33934,15 +36084,40 @@
       </c>
       <c r="CC87" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD87" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE87" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF87" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 4500000}}]</t>
+        </is>
+      </c>
+      <c r="CG87" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH87" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD87" t="inlineStr">
+      <c r="CI87" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE87" t="inlineStr">
+      <c r="CJ87" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-22', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-22', 'href': None}]</t>
         </is>
@@ -34160,7 +36335,7 @@
       </c>
       <c r="AV88" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 2000000}}]</t>
         </is>
       </c>
       <c r="AW88" t="inlineStr">
@@ -34319,15 +36494,40 @@
       </c>
       <c r="CC88" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD88" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE88" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF88" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 2000000}}]</t>
+        </is>
+      </c>
+      <c r="CG88" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH88" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD88" t="inlineStr">
+      <c r="CI88" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE88" t="inlineStr">
+      <c r="CJ88" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-21', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-21', 'href': None}]</t>
         </is>
@@ -34545,7 +36745,7 @@
       </c>
       <c r="AV89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 1500000}}]</t>
         </is>
       </c>
       <c r="AW89" t="inlineStr">
@@ -34704,15 +36904,40 @@
       </c>
       <c r="CC89" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD89" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE89" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF89" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 1500000}}]</t>
+        </is>
+      </c>
+      <c r="CG89" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH89" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD89" t="inlineStr">
+      <c r="CI89" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE89" t="inlineStr">
+      <c r="CJ89" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-20', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-20', 'href': None}]</t>
         </is>
@@ -34930,7 +37155,7 @@
       </c>
       <c r="AV90" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 5000000}}]</t>
         </is>
       </c>
       <c r="AW90" t="inlineStr">
@@ -35089,15 +37314,40 @@
       </c>
       <c r="CC90" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD90" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE90" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF90" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 5000000}}]</t>
+        </is>
+      </c>
+      <c r="CG90" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH90" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD90" t="inlineStr">
+      <c r="CI90" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE90" t="inlineStr">
+      <c r="CJ90" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-19', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-19', 'href': None}]</t>
         </is>
@@ -35315,7 +37565,7 @@
       </c>
       <c r="AV91" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 2000000}}]</t>
         </is>
       </c>
       <c r="AW91" t="inlineStr">
@@ -35474,15 +37724,40 @@
       </c>
       <c r="CC91" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD91" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE91" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF91" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 2000000}}]</t>
+        </is>
+      </c>
+      <c r="CG91" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH91" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD91" t="inlineStr">
+      <c r="CI91" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE91" t="inlineStr">
+      <c r="CJ91" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-18', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-18', 'href': None}]</t>
         </is>
@@ -35700,7 +37975,7 @@
       </c>
       <c r="AV92" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 10000000}}]</t>
         </is>
       </c>
       <c r="AW92" t="inlineStr">
@@ -35859,15 +38134,40 @@
       </c>
       <c r="CC92" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD92" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE92" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF92" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 10000000}}]</t>
+        </is>
+      </c>
+      <c r="CG92" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH92" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD92" t="inlineStr">
+      <c r="CI92" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE92" t="inlineStr">
+      <c r="CJ92" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-17', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-17', 'href': None}]</t>
         </is>
@@ -36085,7 +38385,7 @@
       </c>
       <c r="AV93" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 1500000}}]</t>
         </is>
       </c>
       <c r="AW93" t="inlineStr">
@@ -36244,15 +38544,40 @@
       </c>
       <c r="CC93" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD93" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE93" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF93" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 1500000}}]</t>
+        </is>
+      </c>
+      <c r="CG93" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH93" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD93" t="inlineStr">
+      <c r="CI93" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE93" t="inlineStr">
+      <c r="CJ93" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-16', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-16', 'href': None}]</t>
         </is>
@@ -36470,7 +38795,7 @@
       </c>
       <c r="AV94" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 1000000}}]</t>
         </is>
       </c>
       <c r="AW94" t="inlineStr">
@@ -36629,15 +38954,40 @@
       </c>
       <c r="CC94" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD94" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE94" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF94" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 1000000}}]</t>
+        </is>
+      </c>
+      <c r="CG94" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH94" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD94" t="inlineStr">
+      <c r="CI94" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE94" t="inlineStr">
+      <c r="CJ94" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-15', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-15', 'href': None}]</t>
         </is>
@@ -36855,7 +39205,7 @@
       </c>
       <c r="AV95" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 7000000}}]</t>
         </is>
       </c>
       <c r="AW95" t="inlineStr">
@@ -37014,15 +39364,40 @@
       </c>
       <c r="CC95" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD95" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE95" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF95" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 7000000}}]</t>
+        </is>
+      </c>
+      <c r="CG95" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH95" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD95" t="inlineStr">
+      <c r="CI95" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE95" t="inlineStr">
+      <c r="CJ95" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-14', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-14', 'href': None}]</t>
         </is>
@@ -37240,7 +39615,7 @@
       </c>
       <c r="AV96" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 4800000}}]</t>
         </is>
       </c>
       <c r="AW96" t="inlineStr">
@@ -37399,15 +39774,40 @@
       </c>
       <c r="CC96" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD96" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE96" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF96" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 4800000}}]</t>
+        </is>
+      </c>
+      <c r="CG96" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH96" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD96" t="inlineStr">
+      <c r="CI96" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE96" t="inlineStr">
+      <c r="CJ96" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-12', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-12', 'href': None}]</t>
         </is>
@@ -37625,7 +40025,7 @@
       </c>
       <c r="AV97" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 1000000}}]</t>
         </is>
       </c>
       <c r="AW97" t="inlineStr">
@@ -37784,15 +40184,40 @@
       </c>
       <c r="CC97" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD97" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE97" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF97" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 1000000}}]</t>
+        </is>
+      </c>
+      <c r="CG97" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH97" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD97" t="inlineStr">
+      <c r="CI97" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE97" t="inlineStr">
+      <c r="CJ97" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-11', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-11', 'href': None}]</t>
         </is>
@@ -38010,7 +40435,7 @@
       </c>
       <c r="AV98" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 5000000}}]</t>
         </is>
       </c>
       <c r="AW98" t="inlineStr">
@@ -38169,15 +40594,40 @@
       </c>
       <c r="CC98" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD98" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE98" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF98" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 5000000}}]</t>
+        </is>
+      </c>
+      <c r="CG98" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH98" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD98" t="inlineStr">
+      <c r="CI98" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE98" t="inlineStr">
+      <c r="CJ98" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-9', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-9', 'href': None}]</t>
         </is>
@@ -38395,7 +40845,7 @@
       </c>
       <c r="AV99" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 18000000}}]</t>
         </is>
       </c>
       <c r="AW99" t="inlineStr">
@@ -38554,15 +41004,40 @@
       </c>
       <c r="CC99" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD99" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE99" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF99" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 18000000}}]</t>
+        </is>
+      </c>
+      <c r="CG99" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH99" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD99" t="inlineStr">
+      <c r="CI99" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE99" t="inlineStr">
+      <c r="CJ99" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-8', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-8', 'href': None}]</t>
         </is>
@@ -38780,7 +41255,7 @@
       </c>
       <c r="AV100" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 5000000}}]</t>
         </is>
       </c>
       <c r="AW100" t="inlineStr">
@@ -38939,15 +41414,40 @@
       </c>
       <c r="CC100" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD100" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE100" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF100" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 5000000}}]</t>
+        </is>
+      </c>
+      <c r="CG100" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH100" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD100" t="inlineStr">
+      <c r="CI100" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE100" t="inlineStr">
+      <c r="CJ100" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-7', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-7', 'href': None}]</t>
         </is>
@@ -39165,7 +41665,7 @@
       </c>
       <c r="AV101" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 6000000}}]</t>
         </is>
       </c>
       <c r="AW101" t="inlineStr">
@@ -39324,15 +41824,40 @@
       </c>
       <c r="CC101" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD101" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE101" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF101" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 6000000}}]</t>
+        </is>
+      </c>
+      <c r="CG101" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH101" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD101" t="inlineStr">
+      <c r="CI101" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE101" t="inlineStr">
+      <c r="CJ101" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-6', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-6', 'href': None}]</t>
         </is>
@@ -39550,7 +42075,7 @@
       </c>
       <c r="AV102" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 4000000}}]</t>
         </is>
       </c>
       <c r="AW102" t="inlineStr">
@@ -39709,15 +42234,40 @@
       </c>
       <c r="CC102" t="inlineStr">
         <is>
+          <t>%7C%3BVx</t>
+        </is>
+      </c>
+      <c r="CD102" t="inlineStr">
+        <is>
+          <t>rollup</t>
+        </is>
+      </c>
+      <c r="CE102" t="inlineStr">
+        <is>
+          <t>array</t>
+        </is>
+      </c>
+      <c r="CF102" t="inlineStr">
+        <is>
+          <t>[{'type': 'formula', 'formula': {'type': 'number', 'number': 4000000}}]</t>
+        </is>
+      </c>
+      <c r="CG102" t="inlineStr">
+        <is>
+          <t>show_original</t>
+        </is>
+      </c>
+      <c r="CH102" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CD102" t="inlineStr">
+      <c r="CI102" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="CE102" t="inlineStr">
+      <c r="CJ102" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': 'TN-5', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'TN-5', 'href': None}]</t>
         </is>
